--- a/myproject/flashcards/Flashcards.xlsx
+++ b/myproject/flashcards/Flashcards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c799f0960007513d/Desktop/VS Code/VS_Website/myproject/flashcards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c799f0960007513d/Desktop/VS Code/vs_website/myproject/flashcards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{E2805EBF-5C2D-4EE6-BA13-53470DFF0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E306E5-6422-4ABF-B77B-35B7F8085B13}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{E2805EBF-5C2D-4EE6-BA13-53470DFF0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DCD05E9-8A82-4A93-88B8-2C9BAA1C1AEA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{34F42666-9F0E-4263-89DC-074F54818552}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="37230" windowHeight="15225" xr2:uid="{34F42666-9F0E-4263-89DC-074F54818552}"/>
   </bookViews>
   <sheets>
     <sheet name="Flashcards" sheetId="1" r:id="rId1"/>
@@ -56,11 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Upper KS2, KS3 and KS4 children need focused concentration breaks every 20 minutes. This activity can be done in a classroom. This activity provides opportunities for: relational non-verbal connections, consolidation of learning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult or a child starts a doodle that everyone can see. Everyone has two minutes to take that doodle for a walk in their own way.
-Optional add-on: chance to walk round room to notice how everyone doodle walked in different ways.
 </t>
   </si>
   <si>
@@ -1171,11 +1166,6 @@
 The adult asks the children to put the tip of their tongue behind their top front teeth and see how long they can make an 'nnnnn' sound while opening and shutting their lips.
 Open your mouth
 The adult asks the children to put one of their thumbs pressing their bottom jaw gently up and then slowly open their bottom jaw so they can feel the push against each other.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All adults write one emotion or feeling on each slip of paper that they have when they are interacting with a particular child and put the slip into the container. As a group take the slips of paper and lay them on a table to notice the emotions and feelings that are being experienced in the adults when they interacting with a particular child.  Notice the prevalence of some emotions and feelings and wonder what that must be like for that child as 'whatever you're feeling they are feeling too'.
-Optional add-on:  consider what regulation and relational supports help you navigate different emotions and feelings and what that child might need to navigate their emotions and feelings.
 </t>
   </si>
   <si>
@@ -1603,6 +1593,20 @@
   <si>
     <t xml:space="preserve">67 - Circle of Adults: 
 Home-School Communication Book
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This can be done: in a staff meeting; in a reflective practice group; in your team around a child.
+This activity provides opportunities for: shared adult understanding, reflection, connection-building.
+On a A3 piece of paper or flip chart draw an outline of the 3 R’s upside down triangle, and section into 3 parts : Regulate, Relate, Reason/ Repair.
+Have a reflective discussion and complete the 3 sections on what works (or might work) for your child to meet their 3 R needs. Write a next steps plan based on your reflective discussion. Then do the same with the adults in focus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult or a child starts a doodle that everyone can see. Everyone has two minutes to take that doodle for a walk in their own way._x000D_
+_x000D_
+Optional add-on: chance to walk round room to notice how everyone doodle walked in different ways._x000D_
+_x000D_
 </t>
   </si>
 </sst>
@@ -2472,22 +2476,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED5244-842F-4A7B-8FA7-199D5D349B06}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="125.36328125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="39.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="39.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="39.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2510,15 +2515,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2527,13 +2532,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -2556,1463 +2561,1463 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="261" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D17" s="1">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="203" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" s="1">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" s="1">
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="1">
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D27" s="1">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B29" s="1">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B30" s="1">
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1">
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="1">
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D31" s="1">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D32" s="1">
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="1">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35" s="1">
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" s="1">
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" s="1">
         <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" s="1">
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="B38" s="1">
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D38" s="1">
         <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" s="1">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D39" s="1">
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D40" s="1">
         <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="B41" s="1">
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D41" s="1">
         <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="1">
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D42" s="1">
         <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D43" s="1">
         <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="1">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B45" s="1">
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D45" s="1">
         <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="1">
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D47" s="1">
         <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="1">
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D48" s="1">
         <v>45</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D50" s="1">
         <v>50</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D51" s="1">
         <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="1">
         <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D52" s="1">
         <v>53</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="1">
         <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D53" s="1">
         <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="B54" s="1">
         <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D54" s="1">
         <v>55</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="B55" s="1">
         <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D55" s="1">
         <v>56</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="B56" s="1">
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D56" s="1">
         <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="B57" s="1">
         <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D57" s="1">
         <v>57</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="1">
         <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D58" s="1">
         <v>58</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B59" s="1">
         <v>51</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D59" s="1">
         <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D60" s="1">
         <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D61" s="1">
         <v>60</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="203" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D62" s="1">
         <v>61</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="B63" s="1">
         <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D63" s="1">
         <v>66</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="B64" s="1">
         <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D64" s="1">
         <v>65</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D65" s="1">
         <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="B66" s="1">
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D66" s="1">
         <v>64</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B67" s="1">
         <v>62</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D67" s="1">
         <v>62</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D68" s="1">
         <v>67</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
